--- a/hardware/PaPiRus Zero/Latest Version - v1.2/2015-032-05-PaPiRus-ZERO-partlist_v1_2.xlsx
+++ b/hardware/PaPiRus Zero/Latest Version - v1.2/2015-032-05-PaPiRus-ZERO-partlist_v1_2.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="User"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="421"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="421"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="1" r:id="rId4"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1458162873" val="752" rev="120"/>
@@ -125,9 +129,6 @@
     <t>SAMTEC</t>
   </si>
   <si>
-    <t>REF-182665-01</t>
-  </si>
-  <si>
     <t>20x2-PIN DIL SMD-HEADER/MALE/2.54 PITCH I_MAX=N/A; VDC_MAX=N/A; VAC_MAX=N/A; RCNT_MAX=N/A; RINS_MIN=N/A; MAT-CT=N/A; MAT-HS=N/A; DURABILITY=N/A; INS_FORCE=N/A; RET_FORCE=N/A;</t>
   </si>
   <si>
@@ -393,228 +394,106 @@
   </si>
   <si>
     <t>file name:2015-032-PaPiRus-ZERO-partlist_v1_2.xlsx</t>
+  </si>
+  <si>
+    <t>REF-187717-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00[$Ls-426];[Red]\-#,##0.00[$Ls-426]"/>
-    <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
   <fonts count="10">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
       <b/>
       <i/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <sz val="16"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" kern="1">
-            <pm:latin face="Arial" sz="320" lang="default" weight="bold" i="1"/>
-            <pm:cs face="Times New Roman" sz="320" lang="default" weight="bold" i="1"/>
-            <pm:ea face="SimSun" sz="320" lang="default" weight="bold" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
       <b/>
       <i/>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" ul="cont" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default" weight="bold" i="1"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold" i="1"/>
-            <pm:ea face="SimSun" sz="220" lang="default" weight="bold" i="1"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" kern="1">
-            <pm:latin face="Tahoma1" sz="160" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="160" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="160" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma1"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" kern="1">
-            <pm:latin face="Tahoma1" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma1"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" kern="1">
-            <pm:latin face="Tahoma1" sz="160" lang="default"/>
-            <pm:cs face="Times New Roman" sz="160" lang="default"/>
-            <pm:ea face="SimSun" sz="160" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" kern="1">
-            <pm:latin face="Tahoma" sz="160" lang="default"/>
-            <pm:cs face="Times New Roman" sz="160" lang="default"/>
-            <pm:ea face="SimSun" sz="160" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" fgClr="FF0000" kern="1">
-            <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma1"/>
-      <b/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1458162873" fgClr="FF0000" kern="1">
-            <pm:latin face="Tahoma1" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1458162873" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1458162873"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -629,43 +508,12 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1458162873">
-            <pm:line position="top" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="1" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1458162873"/>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
@@ -673,29 +521,15 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="center" textRotation="90"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1458162873" l="0" r="0" t="0" b="0" textRotation="3"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,33 +555,36 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
+    <cellStyle name="Heading1 1" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Heading1 1" xfId="2"/>
-    <cellStyle name="Result 1" xfId="3"/>
-    <cellStyle name="Result2 1" xfId="4"/>
+    <cellStyle name="Result 1" xfId="2"/>
+    <cellStyle name="Result2 1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1458162873" count="1">
         <pm:charStyle name="Normal" fontId="1"/>
@@ -768,10 +605,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -800,14 +637,108 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -983,650 +914,635 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.60"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.745902" customWidth="1"/>
-    <col min="2" max="2" width="41.377049" customWidth="1"/>
-    <col min="3" max="3" width="35.000000" customWidth="1" style="6"/>
-    <col min="4" max="4" width="4.245902" customWidth="1"/>
-    <col min="5" max="5" width="12.500000" customWidth="1" style="7"/>
-    <col min="6" max="6" width="13.745902" customWidth="1"/>
-    <col min="7" max="7" width="29.377049" customWidth="1"/>
-    <col min="8" max="8" width="26.377049" customWidth="1" style="6"/>
-    <col min="9" max="9" width="16.000000" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="16">
-        <f>ROW(A3)-2</f>
+    <row r="3" spans="1:9" ht="33.75">
+      <c r="A3" s="11">
+        <f t="shared" ref="A3:A20" si="0">ROW(A3)-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="16">
-        <f>ROW(A4)-2</f>
+    <row r="4" spans="1:9" ht="56.25">
+      <c r="A4" s="11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="16">
-        <f>ROW(A5)-2</f>
+    <row r="5" spans="1:9" ht="33.75">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="11">
         <v>16</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16">
-        <f>ROW(A6)-2</f>
+    <row r="6" spans="1:9" ht="78.75">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="101.25">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16">
-        <f>ROW(A7)-2</f>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="112.5">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="67.5">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56.25">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="101.25">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="101.25">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.5">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="22.5">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="22.5">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="11">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33.75">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="11">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="80.25" customHeight="1">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16">
-        <f>ROW(A8)-2</f>
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="16">
-        <f>ROW(A9)-2</f>
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="16">
-        <f>ROW(A10)-2</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="16">
-        <f>ROW(A11)-2</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="E20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="16">
-        <f>ROW(A12)-2</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="16">
-        <f>ROW(A13)-2</f>
-        <v>11</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16">
-        <f>ROW(A14)-2</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="16">
-        <f>ROW(A15)-2</f>
-        <v>13</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16">
-        <f>ROW(A16)-2</f>
-        <v>14</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="16">
-        <f>ROW(A17)-2</f>
-        <v>15</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16">
-        <f>ROW(A18)-2</f>
-        <v>16</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="16">
-        <f>ROW(A19)-2</f>
-        <v>17</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="80.25" customHeight="1">
-      <c r="A20" s="16">
-        <f>ROW(A20)-2</f>
-        <v>18</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="17" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="B23" s="18"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1458162873" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.590278" right="0.590278" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" scale="65" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1"/>
+  <pageMargins left="0.59027799999999997" right="0.59027799999999997" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1458162873" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1458162873" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1458162873" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1458162873" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
